--- a/results/supplement/tables/Table_S2.xlsx
+++ b/results/supplement/tables/Table_S2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Metatranscriptomes (cDNA)" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,6 +33,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Raw reads pairs</t>
     </r>
@@ -43,6 +44,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -54,6 +56,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quality trimmed</t>
     </r>
@@ -64,6 +67,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -75,6 +79,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Mapped to Assembly</t>
     </r>
@@ -85,6 +90,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -95,6 +101,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Streptomycin – </t>
     </r>
@@ -104,6 +111,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">C. difficile</t>
     </r>
@@ -112,6 +120,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> infected</t>
     </r>
@@ -125,6 +134,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cefoperazone – </t>
     </r>
@@ -134,6 +144,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">C. difficile</t>
     </r>
@@ -142,6 +153,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> infected</t>
     </r>
@@ -155,6 +167,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Clindamycin – </t>
     </r>
@@ -164,6 +177,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">C. difficile</t>
     </r>
@@ -172,6 +186,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> infected</t>
     </r>
@@ -210,6 +225,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -231,6 +247,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -238,12 +255,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,17 +335,17 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,17 +435,17 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,7 +520,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -522,12 +541,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/results/supplement/tables/Table_S2.xlsx
+++ b/results/supplement/tables/Table_S2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Metatranscriptomes (cDNA)" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Metagenomes (DNA)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="16S rRNA gene (DNA)" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Metagenomic Assembly statistics" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t xml:space="preserve">Metatranscriptome</t>
   </si>
@@ -58,7 +58,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Quality trimmed</t>
+      <t xml:space="preserve">Quality trimmed (% remaining)</t>
     </r>
     <r>
       <rPr>
@@ -75,13 +75,162 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Streptomycin – </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C. difficile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> infected</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">253185782 (82.45%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streptomycin – mock infected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226737019 (83.89%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cefoperazone – </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C. difficile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> infected</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">322153373 (85.64%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cefoperazone – mock infected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289481340 (84.5%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Clindamycin – </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C. difficile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> infected</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">223661860 (84.09%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clindamycin – mock infected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216933273 (82.97%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Antibiotics – mock infected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">329411775 (82.78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superscipts:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1=Total individual reads directly from sequencer – all paired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2= Read totals following adapter, quality trimming, and residual in silico rRNA removal - paired and orphaned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3=Reads totals that mapped to metagenomic assembly after optical and PCR duplicate removal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metagenome</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Mapped to Assembly</t>
+      <t xml:space="preserve">Quality trimmed</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (% remaining)</t>
     </r>
     <r>
       <rPr>
@@ -92,7 +241,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t xml:space="preserve">2</t>
     </r>
   </si>
   <si>
@@ -124,9 +273,43 @@
       </rPr>
       <t xml:space="preserve"> infected</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Streptomycin – mock infected</t>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">378758657 (92.96%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Streptomycin – mock infected</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">394499193 (99.77%)</t>
   </si>
   <si>
     <r>
@@ -157,9 +340,44 @@
       </rPr>
       <t xml:space="preserve"> infected</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Cefoperazone – C. difficile infected</t>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">364820685 (92.9%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cefoperazone – mock infected</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">178133857 (99.82%)</t>
   </si>
   <si>
     <r>
@@ -190,27 +408,95 @@
       </rPr>
       <t xml:space="preserve"> infected</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Clindamycin – mock infected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Antibiotics – mock infected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superscipts:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metagenome</t>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">317183590 (91.03%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Clindamycin – mock infected</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">118502295 (99.76%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">No Antibiotics – mock infected</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">116560872 (99.81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4= Sequenced with HiSeq 2500 – 2 x 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5=Sequenced with NextSeq – 2 x 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total contigs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequences &gt; 1 kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequences &gt; 5 kb</t>
   </si>
 </sst>
 </file>
@@ -220,7 +506,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -260,6 +546,36 @@
     <font>
       <i val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -307,13 +623,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -333,91 +665,154 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="1:14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="3" t="n">
+        <v>307082142</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="3" t="n">
+        <v>270291248</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>376175754</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>342590768</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>265973934</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>9</v>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>261472804</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>397936700</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -433,91 +828,185 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>407440672</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>395429292</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>392694214</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>178456950</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>348426748</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>118787094</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>116784668</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -533,17 +1022,138 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.0714285714286"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1317910</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1106640</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2479</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2539357</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>158781</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>811592</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1646</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>3913</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>496917</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1434</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>83535</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>10603</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
